--- a/data/s_vals/2023/weber_ryan.xlsx
+++ b/data/s_vals/2023/weber_ryan.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.39046706070303</v>
+        <v>1.505614041169197</v>
       </c>
       <c r="C2" t="n">
-        <v>8.97116602537098</v>
+        <v>86.29678392075563</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4743886036040816</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8191437775164554</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>12.65516546719455</v>
+        <v>94.99655889021044</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4798548413538308</v>
+        <v>0.06328177979961902</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5496097884205744</v>
+        <v>0.3375848360084654</v>
       </c>
       <c r="D3" t="n">
-        <v>2.084191109552682</v>
+        <v>16.98373111632243</v>
       </c>
       <c r="E3" t="n">
-        <v>1.942068315706629</v>
+        <v>246.9852506941017</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.055724055033716</v>
+        <v>264.3698484262322</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04671107745245173</v>
+        <v>6.486019690155054e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07547255899491345</v>
+        <v>0.004309184025731883</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4743886036040816</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8191437775164554</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.415716017567902</v>
+        <v>7.198534972508243</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.641759230980763</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C5" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4743886036040816</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8191437775164554</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>6.264653728880862</v>
+        <v>12.0302756157461</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2023/weber_ryan.xlsx
+++ b/data/s_vals/2023/weber_ryan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>94.99655889021044</v>
       </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>264.3698484262322</v>
       </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>7.198534972508243</v>
       </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -563,6 +577,9 @@
       </c>
       <c r="G5" t="n">
         <v>12.0302756157461</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2023/weber_ryan.xlsx
+++ b/data/s_vals/2023/weber_ryan.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.505614041169197</v>
+        <v>1.455362044514542</v>
       </c>
       <c r="C2" t="n">
-        <v>86.29678392075563</v>
+        <v>117.745847958593</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7127328510149897</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E2" t="n">
-        <v>6.48142807727062</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>94.99655889021044</v>
+        <v>130.146406277818</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06328177979961902</v>
+        <v>0.04271373187048222</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3375848360084654</v>
+        <v>0.306821227259698</v>
       </c>
       <c r="D3" t="n">
-        <v>16.98373111632243</v>
+        <v>22.3905356188092</v>
       </c>
       <c r="E3" t="n">
-        <v>246.9852506941017</v>
+        <v>1133.036916526867</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>264.3698484262322</v>
+        <v>1155.776987104807</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -533,25 +533,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.486019690155054e-05</v>
+        <v>1.292064567892659e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004309184025731883</v>
+        <v>0.002571899574220771</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7127328510149897</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E4" t="n">
-        <v>6.48142807727062</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7.198534972508243</v>
+        <v>10.94778109493032</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -561,22 +561,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.182878228561681</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C5" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7127328510149897</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E5" t="n">
-        <v>6.48142807727062</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>12.0302756157461</v>
+        <v>15.88780690183548</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
